--- a/corr_results.xlsx
+++ b/corr_results.xlsx
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr year (Date)</t>
+          <t>Avg. Delta year (Date)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr quarter (Date)</t>
+          <t>Avg. Delta quarter (Date)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr month (Date)</t>
+          <t>Avg. Delta month (Date)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr year (Announcement)</t>
+          <t>Avg. Delta year (Announcement)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr quarter (Announcement)</t>
+          <t>Avg. Delta quarter (Announcement)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Avg. Corr month (Announcement)</t>
+          <t>Avg. Delta month (Announcement)</t>
         </is>
       </c>
     </row>

--- a/corr_results.xlsx
+++ b/corr_results.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001867122760870683</v>
+        <v>0.05969271490998529</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06639803128736994</v>
+        <v>0.03983300172588089</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005486389947323816</v>
+        <v>0.009100270834281016</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00371378219302594</v>
+        <v>-0.04702621533324235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05949964545035462</v>
+        <v>0.1632653645272884</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09912104853944638</v>
+        <v>-0.04894401509718622</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008542712182071088</v>
+        <v>0.1956191238186763</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2801059365904356</v>
+        <v>0.1632845503894881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1346307848499175</v>
+        <v>0.05981183762636764</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.004418902134902642</v>
+        <v>0.02402566336592401</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1412598931914565</v>
+        <v>0.2547357343296811</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2614528650018121</v>
+        <v>0.01524821882903089</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.00369586842346299</v>
+        <v>-0.05357929251392392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1116918897985181</v>
+        <v>-0.06304328882712514</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1222507022783583</v>
+        <v>-0.03315936815912449</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003126182241462022</v>
+        <v>-0.1062361142492143</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008633894333896948</v>
+        <v>0.08704005635862783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03615546517919172</v>
+        <v>-0.1024375433690338</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1159030728902376</v>
+        <v>0.01191658871183041</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05146981702309654</v>
+        <v>0.002687126620425711</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1867146672702895</v>
+        <v>-0.06274346656085232</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1387405115618934</v>
+        <v>-0.1008947696089508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05537752597605528</v>
+        <v>0.03245448337941106</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2260092715248538</v>
+        <v>-0.101211581530788</v>
       </c>
     </row>
   </sheetData>

--- a/corr_results.xlsx
+++ b/corr_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,76 +493,176 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Included 40 </t>
+          <t>Included_p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1956191238186763</v>
+        <v>0.3868245217298699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1632845503894881</v>
+        <v>0.5532821710480755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05981183762636764</v>
+        <v>0.9033219982405636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02402566336592401</v>
+        <v>0.5450443846432654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2547357343296811</v>
+        <v>0.04204417394643634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01524821882903089</v>
+        <v>0.555317503301102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Included Rest </t>
+          <t xml:space="preserve">Included_40 </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05357929251392392</v>
+        <v>0.1956191238186763</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06304328882712514</v>
+        <v>0.1632845503894881</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03315936815912449</v>
+        <v>0.05981183762636764</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1062361142492143</v>
+        <v>0.02402566336592401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08704005635862783</v>
+        <v>0.2547357343296811</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1024375433690338</v>
+        <v>0.01524821882903089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Included_40_p</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09439365034951663</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1398074783405092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6358706338726667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8485087190465386</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05921114232469687</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9093915887391844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Included_rest </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.05357929251392392</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.06304328882712514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.03315936815912449</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1062361142492143</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08704005635862783</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1024375433690338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Included_rest_p</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4667070663448847</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3990315336736528</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6809252729854047</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1839602740072059</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3515226603562915</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2645781632760021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Excluded </t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B8" t="n">
         <v>0.01191658871183041</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" t="n">
         <v>0.002687126620425711</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" t="n">
         <v>-0.06274346656085232</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E8" t="n">
         <v>-0.1008947696089508</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F8" t="n">
         <v>0.03245448337941106</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>-0.101211581530788</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Excluded_p</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9102356751505198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9794717879094602</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6102659771954195</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4229107754587149</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7981901031036155</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.511539654078256</v>
       </c>
     </row>
   </sheetData>

--- a/corr_results.xlsx
+++ b/corr_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Avg. Delta quarter (Date)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Avg. Delta month (Date)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Avg. Delta year (Announcement)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Avg. Delta quarter (Announcement)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Avg. Delta month (Announcement)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
         </is>
       </c>
     </row>
@@ -475,193 +505,165 @@
         <v>0.05969271490998529</v>
       </c>
       <c r="C2" t="n">
+        <v>0.3868245217298699</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.03983300172588089</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>0.5532821710480755</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.009100270834281016</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.9033219982405636</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.04702621533324235</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>0.5450443846432654</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.1632653645272884</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>0.04204417394643634</v>
+      </c>
+      <c r="L2" t="n">
         <v>-0.04894401509718622</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.555317503301102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Included_p</t>
+          <t>Included_40</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3868245217298699</v>
+        <v>0.1956191238186763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5532821710480755</v>
+        <v>0.09439365034951663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9033219982405636</v>
+        <v>0.1632845503894881</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5450443846432654</v>
+        <v>0.1398074783405092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04204417394643634</v>
+        <v>0.05981183762636764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.555317503301102</v>
+        <v>0.6358706338726667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02402566336592401</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8485087190465386</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2547357343296811</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05921114232469687</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01524821882903089</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9093915887391844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Included_40 </t>
+          <t>Included_rest</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1956191238186763</v>
+        <v>-0.05357929251392392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1632845503894881</v>
+        <v>0.4667070663448847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05981183762636764</v>
+        <v>-0.06304328882712514</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02402566336592401</v>
+        <v>0.3990315336736528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2547357343296811</v>
+        <v>-0.03315936815912449</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01524821882903089</v>
+        <v>0.6809252729854047</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.1062361142492143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1839602740072059</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.08704005635862783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3515226603562915</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1024375433690338</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2645781632760021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Included_40_p</t>
+          <t>Excluded</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09439365034951663</v>
+        <v>0.01191658871183041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1398074783405092</v>
+        <v>0.9102356751505198</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6358706338726667</v>
+        <v>0.002687126620425711</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8485087190465386</v>
+        <v>0.9794717879094602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05921114232469687</v>
+        <v>-0.06274346656085232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9093915887391844</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Included_rest </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.05357929251392392</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.06304328882712514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.03315936815912449</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.1062361142492143</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08704005635862783</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.1024375433690338</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Included_rest_p</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.4667070663448847</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3990315336736528</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6809252729854047</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1839602740072059</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3515226603562915</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2645781632760021</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excluded </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01191658871183041</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002687126620425711</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.06274346656085232</v>
-      </c>
-      <c r="E8" t="n">
+        <v>0.6102659771954195</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.1008947696089508</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I5" t="n">
+        <v>0.4229107754587149</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.03245448337941106</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K5" t="n">
+        <v>0.7981901031036155</v>
+      </c>
+      <c r="L5" t="n">
         <v>-0.101211581530788</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Excluded_p</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9102356751505198</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9794717879094602</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6102659771954195</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.4229107754587149</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7981901031036155</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="M5" t="n">
         <v>0.511539654078256</v>
       </c>
     </row>
